--- a/Diccionario.xlsx
+++ b/Diccionario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Clases\ICESI\2023_II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CDF71F-B605-498D-9EF8-AFD32A0AC23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5F3CFE-9AD0-45C5-8F4B-3FE818D69FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C59EDC33-EBD5-4B1E-B07E-4174F1239F73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C59EDC33-EBD5-4B1E-B07E-4174F1239F73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>GENERO</t>
   </si>
@@ -523,13 +523,19 @@
   </si>
   <si>
     <t>El usuario presentó complicación? Variable Objetivo</t>
+  </si>
+  <si>
+    <t>FECHA_CERO</t>
+  </si>
+  <si>
+    <t>Fecha_Cero Usuario Antes De La Complicacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +550,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -566,9 +578,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,19 +898,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D81E513-7546-438B-853C-46DB7D51A417}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
@@ -903,661 +920,751 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>163</v>
       </c>
       <c r="B56" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
       <c r="B57" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
       <c r="B59" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
       <c r="B61" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
       <c r="B62" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
       <c r="B63" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
       <c r="B65" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
       <c r="B66" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
       <c r="B67" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
       <c r="B68" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
       <c r="B69" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
       <c r="B70" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
       <c r="B71" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>69</v>
       </c>
       <c r="B72" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
       <c r="B73" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>71</v>
       </c>
       <c r="B74" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>72</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>73</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>74</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>75</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>76</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>77</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>78</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>79</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>80</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>158</v>
       </c>
+      <c r="D84" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
